--- a/image/Simulador FGI.xlsx
+++ b/image/Simulador FGI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\dime-2\DIME-2 - Produtos\Garantias\FGI - BNDES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\dime-2\DIME-2.1 - Rede de Parceiros\!CORRESPONDENTES\Ferramentas de Apoio\Manual Correspondentes\docs\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,6 @@
     <sheet name="Estimativa FGI" sheetId="1" r:id="rId1"/>
     <sheet name="Fator K e Fórmulas" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Estimativa FGI'!$A$1:$J$22</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -589,7 +586,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -701,7 +698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,8 +771,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
@@ -816,7 +812,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1076325" y="85725"/>
+          <a:off x="1504950" y="85725"/>
           <a:ext cx="2819400" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1208,18 +1204,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
     <col min="4" max="6" width="5.28515625" style="2" customWidth="1"/>
@@ -1250,15 +1241,15 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
       <c r="M4" s="2" t="s">
@@ -1275,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="J6" s="4"/>
       <c r="M6" s="2" t="s">
@@ -1296,7 +1287,6 @@
         <v>9</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="I8" s="54"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,34 +1295,34 @@
     </row>
     <row r="10" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="65"/>
       <c r="E11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="3"/>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="str">
+      <c r="B12" s="66" t="str">
         <f>IF(C6*0.8&gt;400000,"Não é Possível a Utilização do FGI","Possível Garantia Total pelo FGI")</f>
         <v>Possível Garantia Total pelo FGI</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="67" t="str">
+      <c r="G12" s="66" t="str">
         <f>IF(((C6*1.3)-H15)&gt;400000,"Não é Possível Utilização do FGI","Possível Garantia Complementar pelo FGI")</f>
         <v>Possível Garantia Complementar pelo FGI</v>
       </c>
-      <c r="H12" s="68"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48" t="s">
@@ -1356,56 +1346,56 @@
       </c>
       <c r="C14" s="50">
         <f>IF(B12="Possível Garantia Total pelo FGI",(VLOOKUP(C7,'Fator K e Fórmulas'!A2:B121,2)*C6*C13*C7)/(1-(VLOOKUP(C7,'Fator K e Fórmulas'!A13:B121,2)*C13*C7)),"-")</f>
-        <v>5042.0168067226896</v>
+        <v>9030.1003344481614</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="50">
         <f>IF(G12="Possível Garantia Complementar pelo FGI",(VLOOKUP(C7,'Fator K e Fórmulas'!A2:B121,2)*C6*H13*C7)/(1-(VLOOKUP(C7,'Fator K e Fórmulas'!A13:B121,2)*H13*C7)),"-")</f>
-        <v>5042.0168067226896</v>
+        <v>9030.1003344481614</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="str">
         <f>IF(B12="Possível Garantia Total pelo FGI",IF(C6&gt;100000,"Patrimônio Mínimo Sócio",""),"")</f>
-        <v/>
-      </c>
-      <c r="C15" s="51" t="str">
+        <v>Patrimônio Mínimo Sócio</v>
+      </c>
+      <c r="C15" s="51">
         <f>IF(B12="Possível Garantia Total pelo FGI",IF(C6&gt;100000,C6,""),"")</f>
-        <v/>
+        <v>200000</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="52">
         <f>C6*0.8</f>
-        <v>80000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="str">
+      <c r="B19" s="61" t="str">
         <f>IF(C6&gt;800000,"Para as condições indicadas, não é possível utilizar o FGI.",M2)</f>
         <v>1. Valor  do ECG é incorporado ao financiamento, sendo então financiado nas mesmas condições de juros e prazo do financiamento, respeitando inclusive o prazo de carência contratado. Os valores aqui apresentados são uma estimativa, o valor efetivo será calculado na liberação do financiamento.</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="44" t="str">
@@ -1420,22 +1410,23 @@
       <c r="H20" s="46"/>
     </row>
     <row r="21" spans="2:10" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="56" t="str">
+      <c r="B21" s="55" t="str">
         <f>IF(C6&gt;800000,"",IF(C6&gt;100000,IF(C6&gt;500000,M6,M5),M4))</f>
-        <v>3. Para financiamentos até R$ 100.000,00, a garantia poderá ser constituída, exclusivamente, por FGI, no percentual mínimo de 80%.</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
+        <v>3. Para financiamentos superiores a R$ 100.000,00, a garantia poderá ser constituída, exclusivamente, por FGI, no percentual mínimo de 80%, desde que o patrimônio de, ao menos, um dos sócios da empresa beneficiária, corresponda a, no mínimo, 1 (uma) vez o valor do crédito. Verificado através do imposto de renda, considerando os bens desonerados, descontado do cálculo o valor do imóvel único e/ou o residencial. 
+Caso o sócio que atenda a condição de patrimônio descrita não seja sócio-administrador ou não possua mais de 10% do capital da empresa, o seu aval é obrigatório.</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J23" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+zyHRQpXMnhpQGsTIhy7fJWbc/83OMsQ5UzL8uEzEjaQFUzlbW+ikEJUfgHAG6vdTPKumndeACIbFfCBUWYAuA==" saltValue="qfk+Dlfj9sSEH70+EXnGVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B21:H21"/>
@@ -1451,8 +1442,8 @@
       <formula>$G$12="Não é Possível Utilização do FGI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -1463,7 +1454,7 @@
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.83E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1497,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1.83E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.83E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1513,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7.4999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1521,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>7.4999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>7.4999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1537,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1545,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1553,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1561,14 +1552,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="26">
         <f>VLOOKUP('Estimativa FGI'!C7,'Fator K e Fórmulas'!A2:B121,2,FALSE)</f>
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F11" s="27"/>
     </row>
@@ -1577,14 +1568,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="28">
         <f>'Estimativa FGI'!C6</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="F12" s="29"/>
     </row>
@@ -1593,7 +1584,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>17</v>
@@ -1610,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>3.0999999999999999E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>18</v>
@@ -1626,7 +1617,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>3.0999999999999999E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1634,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>3.0999999999999999E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
@@ -1651,18 +1642,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="17">
         <f>E11*(E12*E13)*E14</f>
-        <v>4800</v>
+        <v>8640</v>
       </c>
       <c r="H17" s="35">
         <f>G17/G18</f>
-        <v>5042.0168067226896</v>
+        <v>9030.1003344481614</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1670,14 +1661,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="34">
         <f>1-(E11*E13*E14)</f>
-        <v>0.95199999999999996</v>
+        <v>0.95679999999999998</v>
       </c>
       <c r="H18" s="22"/>
     </row>
@@ -1686,7 +1677,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="24"/>
@@ -1699,7 +1690,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
@@ -1716,18 +1707,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="17">
         <f>E11*(E12*F13)*E14</f>
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="H21" s="35">
         <f>G21/G22</f>
-        <v>3092.7835051546394</v>
+        <v>5549.8458376156223</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1735,14 +1726,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="36">
         <f>1-(E11*F13*E14)</f>
-        <v>0.97</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="H22" s="25"/>
     </row>
@@ -1751,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1759,7 +1750,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D24" s="47" t="s">
         <v>28</v>
@@ -1772,7 +1763,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>23</v>
@@ -1783,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D26" s="47" t="s">
         <v>24</v>
@@ -1794,7 +1785,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>25</v>
@@ -1805,7 +1796,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1813,7 +1804,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1821,7 +1812,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1829,7 +1820,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1837,7 +1828,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1836,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +1844,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1852,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1.4E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1860,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1.4E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1868,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1.4E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1900,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1908,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,7 +1916,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1924,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,7 +1932,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1949,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +1948,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1965,7 +1956,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +1964,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,7 +1972,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +1980,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +1988,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,7 +1996,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2013,7 +2004,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2021,7 +2012,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2029,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,7 +2028,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2045,7 +2036,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2044,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2061,7 +2052,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2069,7 +2060,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2101,7 +2092,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,7 +2100,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2117,7 +2108,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2125,7 +2116,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2133,7 +2124,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,7 +2132,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,7 +2188,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2205,7 +2196,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,7 +2204,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2221,7 +2212,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +2220,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2237,7 +2228,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,7 +2284,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2301,7 +2292,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,7 +2300,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +2308,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,7 +2316,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +2324,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2437,7 +2428,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2436,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2453,7 +2444,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,7 +2452,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2469,7 +2460,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2477,7 +2468,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
